--- a/inputs/uniprot_missing_david_curated_270122.xlsx
+++ b/inputs/uniprot_missing_david_curated_270122.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joszar/Desktop/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joszar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5BE3BFA-D35D-AB4A-B8DB-ED49D4FF6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6F9CA6-ACDE-7546-B389-5E751BED76F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19540" yWindow="-17120" windowWidth="26840" windowHeight="15540" xr2:uid="{8B173AAC-1908-1544-AD38-A166140703DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{8B173AAC-1908-1544-AD38-A166140703DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -703,19 +703,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -739,11 +731,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1065,1082 +1058,1080 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7867954-38F7-E147-B9E2-34915154143A}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D82" sqref="A1:D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="D15" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="D16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="D17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="D20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="D28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="D29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="D30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="D33" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="D34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="D35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="D37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="D38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="D40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="D41" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="D42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="D43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="D46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="D47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="D48" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="D49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="D50" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="D51" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="D52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="D53" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="D54" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="D55" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="D56" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D70" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D72" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D73" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D74" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D75" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D76" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="18">
-      <c r="A79" s="1" t="s">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="18">
+      <c r="D79" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18">
+      <c r="D80" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="18">
+      <c r="D81" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B71" r:id="rId1" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000175899" xr:uid="{856933F9-0065-5E48-8256-F354C14C084A}"/>
-    <hyperlink ref="B70" r:id="rId2" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000211459" xr:uid="{DD36C25D-F414-474E-99B6-76F50D60BEB2}"/>
-    <hyperlink ref="B69" r:id="rId3" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000255393" xr:uid="{3B64F5C2-82A3-5F48-B853-1004552B04A3}"/>
-    <hyperlink ref="B68" r:id="rId4" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000229907" xr:uid="{46148E5C-D67E-9C4A-A95D-49237EF39072}"/>
-    <hyperlink ref="B67" r:id="rId5" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000210082" xr:uid="{D69E55BA-94A0-D544-8E9B-51E98625977D}"/>
-    <hyperlink ref="B66" r:id="rId6" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000284690" xr:uid="{8524AE80-63A4-1142-ADE7-57E22D461A80}"/>
-    <hyperlink ref="B65" r:id="rId7" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000285010" xr:uid="{78B09277-C5F1-7647-AA85-8DF1FF33C526}"/>
-    <hyperlink ref="B64" r:id="rId8" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000143443" xr:uid="{BB06392B-6B1E-CB4F-BB04-80FC51A30A69}"/>
-    <hyperlink ref="B63" r:id="rId9" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000206034" xr:uid="{CDC7975F-07B9-2147-97D5-87D8EE762446}"/>
-    <hyperlink ref="B62" r:id="rId10" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000188373" xr:uid="{DFF7F2E5-227F-384B-9A78-F96064620228}"/>
-    <hyperlink ref="B61" r:id="rId11" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000285231" xr:uid="{F285C6CC-5936-C740-ADA6-F3C8A2CA6466}"/>
-    <hyperlink ref="B60" r:id="rId12" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000166845" xr:uid="{CCD87503-0CB8-CB4D-9104-1BFBA26CB87F}"/>
-    <hyperlink ref="B59" r:id="rId13" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000215371" xr:uid="{9041750A-D1D1-A147-AA55-A5ECFD563E77}"/>
-    <hyperlink ref="B58" r:id="rId14" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000184530" xr:uid="{01F9A60B-A22C-3249-8D2E-BE7F9CF242E9}"/>
-    <hyperlink ref="B57" r:id="rId15" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000136275" xr:uid="{DB392E23-5EDE-5446-9B77-A07D3FB75D96}"/>
-    <hyperlink ref="B56" r:id="rId16" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000231991" xr:uid="{A005B37B-3565-6C46-8AA1-A8398A618AC8}"/>
-    <hyperlink ref="B53" r:id="rId17" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000233056" xr:uid="{2DB905BA-3AC5-434A-81B6-65B63A5896BD}"/>
-    <hyperlink ref="B52" r:id="rId18" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000283586" xr:uid="{0244D660-D164-5E40-8022-EAA477482A09}"/>
-    <hyperlink ref="B51" r:id="rId19" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000222037" xr:uid="{9352870B-7974-6044-A761-6A6C3A89AAAA}"/>
-    <hyperlink ref="B50" r:id="rId20" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000205592" xr:uid="{A541677D-F030-4744-B019-468CF7780AFC}"/>
-    <hyperlink ref="B49" r:id="rId21" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000181977" xr:uid="{5EF40009-F93A-1A42-AF88-A3E9160273FF}"/>
-    <hyperlink ref="B48" r:id="rId22" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000196364" xr:uid="{737D9E89-C34A-B14F-88F4-8A9C02F048C2}"/>
-    <hyperlink ref="B47" r:id="rId23" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000236170" xr:uid="{14D57F02-BC0C-8E4E-89A4-7E2CD0CB65BD}"/>
-    <hyperlink ref="B46" r:id="rId24" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000166763" xr:uid="{67C7CC6F-8923-654B-9A73-866578E807FB}"/>
-    <hyperlink ref="B45" r:id="rId25" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000231004" xr:uid="{88214BFC-8624-A142-ADB4-30424DD01043}"/>
-    <hyperlink ref="B44" r:id="rId26" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000182352" xr:uid="{1146853C-F5CC-B244-929E-44BDE2CAB16B}"/>
-    <hyperlink ref="B43" r:id="rId27" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000186715" xr:uid="{78C13529-1D53-2D40-AA60-B8F76DC85138}"/>
-    <hyperlink ref="B42" r:id="rId28" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000276717" xr:uid="{3632003C-2AD9-4147-81D3-72B3DC7C4432}"/>
-    <hyperlink ref="B40" r:id="rId29" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000119440" xr:uid="{226D7B1B-9C02-7446-B293-A36D391EF799}"/>
-    <hyperlink ref="B39" r:id="rId30" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000165511" xr:uid="{8897F8C2-590F-D441-A6B2-432C8C7770C9}"/>
-    <hyperlink ref="B33" r:id="rId31" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000204662" xr:uid="{4C7D9857-2978-284F-AF89-E24A42ADEC11}"/>
-    <hyperlink ref="B29" r:id="rId32" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000253998" xr:uid="{BDF2FCA4-EE5F-EE4B-864D-9D500776F23D}"/>
-    <hyperlink ref="B30" r:id="rId33" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000253497" xr:uid="{5A9529DA-C81C-EC48-B34A-8930CEDD0397}"/>
-    <hyperlink ref="B26" r:id="rId34" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000175728" xr:uid="{6B1E6F5A-6DC6-6841-92E8-B2843EEB6EE3}"/>
-    <hyperlink ref="B28" r:id="rId35" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000255633" xr:uid="{738E7102-9D50-E946-A099-8E595CF3633F}"/>
-    <hyperlink ref="B22" r:id="rId36" display="http://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000231475" xr:uid="{C4547727-CF5B-3146-A065-D79EA2CF256A}"/>
-    <hyperlink ref="B6" r:id="rId37" display="https://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000271043" xr:uid="{63AC476B-6BCE-B747-9181-DFD82CF44344}"/>
-    <hyperlink ref="A79" r:id="rId38" display="https://www.genecards.org/cgi-bin/carddisp.pl?gene=MTRNR2L12&amp;keywords=ENSG00000269028" xr:uid="{2EA2EFD0-FEF5-C742-BA38-1E85A250B8D4}"/>
-    <hyperlink ref="B79" r:id="rId39" display="https://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000269028" xr:uid="{EE547110-987B-D045-B5AD-12158D5470E5}"/>
-    <hyperlink ref="B80" r:id="rId40" display="https://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000256618" xr:uid="{E719009E-5F4E-7241-8236-6729617F5B86}"/>
-    <hyperlink ref="B81" r:id="rId41" display="https://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000255823" xr:uid="{577D1AAC-1E8B-5B40-A561-93BF671CEFD6}"/>
-    <hyperlink ref="B82" r:id="rId42" display="https://www.ensembl.org/Homo_sapiens/geneview?gene=ENSG00000270672" xr:uid="{E647FD38-2567-1D4F-9F9C-7F3F03954B49}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>